--- a/pubmed_validation_sheets/12745286 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/12745286 DISNET VALIDATION.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/IdeaProjects/disnet_rest/tmp/excel/pubmed/1.Validated/OK_DISNET_VALIDATION_PUBMED_(100)_v1.1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{07E71C1A-4B23-DE44-B3D7-C71996AC9341}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="48040" yWindow="720" windowWidth="20200" windowHeight="16940" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
+    <workbookView xWindow="38680" yWindow="460" windowWidth="20200" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -213,18 +215,28 @@
   </si>
   <si>
     <t>FN</t>
+  </si>
+  <si>
+    <t>cataracts</t>
+  </si>
+  <si>
+    <t>Bilateral cataracts (disorder)</t>
+  </si>
+  <si>
+    <t>[acab]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,16 +304,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,44 +458,44 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -536,6 +548,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -614,7 +629,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -666,7 +681,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -860,21 +875,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F743750-5540-5B42-BCD9-474CEE4AA1C7}">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
@@ -887,34 +902,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="121" customHeight="1" thickBot="1">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
@@ -1494,34 +1509,69 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="14" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1530,6 +1580,10 @@
     <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>